--- a/HW_3/docs/experiments6.xlsx
+++ b/HW_3/docs/experiments6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IdoYe\PycharmProjects\Introduction_to_Artificial_Intelligence_236501\HW_3\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:140008_{D0B039E4-CB4E-41DA-B31A-5BF2D0E70759}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A45846-9707-4E53-AB71-5FF242DD4A8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="experiments6" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -702,19 +702,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.94099999999999995</c:v>
+                  <c:v>0.93600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.94399999999999995</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.93799999999999994</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.93500000000000005</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93599999999999905</c:v>
+                  <c:v>0.92500000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -825,8 +825,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1914,11 +1915,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1928,10 +1929,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>0.94099999999999995</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="C1">
-        <v>5.8999999999999997E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1939,10 +1940,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.94399999999999995</v>
+        <v>0.95</v>
       </c>
       <c r="C2">
-        <v>5.5999999999999897E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1950,10 +1951,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.93799999999999994</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="C3">
-        <v>6.2E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1961,10 +1962,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.93500000000000005</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="C4">
-        <v>6.5000000000000002E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1972,14 +1973,15 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.93599999999999905</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="C5">
-        <v>6.4000000000000001E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>